--- a/batch_recognition_results.xlsx
+++ b/batch_recognition_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,87 +451,67 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>处理时间</t>
+          <t>检测时间</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>下载.jpeg</t>
+          <t>811F0309886A7EEA124B65641056E35830100218_w1920_h1280.jpg</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>办公楼</t>
+          <t>bus</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>95</v>
+        <v>92.3</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.5秒</t>
+          <t>0.4秒</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>OIP-C (1).jpeg</t>
+          <t>04fce7ee29d0b6c4941b1f9bf68028b2.jpg</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>办公楼</t>
+          <t>未检测到建筑物</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.5秒</t>
+          <t>0.1秒</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>下载.jpeg</t>
+          <t>road.jpg</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>办公楼</t>
+          <t>car</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>95</v>
+        <v>71.5</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.5秒</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>OIP-C (1).jpeg</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>办公楼</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>95</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.5秒</t>
+          <t>0.1秒</t>
         </is>
       </c>
     </row>
